--- a/explore/costs_calc.xlsx
+++ b/explore/costs_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rime/uw-datascience/ds785/thesis_latex/explore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E48013-41E9-824B-AC79-B0D3ACA688EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF61B0D5-79A1-E24B-960C-32B658FF29FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8640" yWindow="460" windowWidth="32300" windowHeight="19560" xr2:uid="{5F43299C-6689-8349-9F7B-1CAF92A64BB7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>t</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Estimated Costs:</t>
-  </si>
-  <si>
-    <t>250 Websites</t>
   </si>
   <si>
     <t>Concurrent Scan Limit:</t>
@@ -430,41 +427,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4CF063-D35C-5B46-BFAD-CEE1E92E4454}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>720</v>
       </c>
-      <c r="C2">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -472,22 +463,16 @@
         <f>B2</f>
         <v>720</v>
       </c>
-      <c r="C3">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -495,78 +480,56 @@
         <f>B2</f>
         <v>720</v>
       </c>
-      <c r="C5">
-        <f>C2</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1.5</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -574,22 +537,14 @@
         <f>0.176*B2 + 0.0049*B3*B4+0.0255*B5*B6+0.023*B7+0.085*B8+0.045*B9+0.008*B10+0.4*B11+0.5</f>
         <v>157.14050000000003</v>
       </c>
-      <c r="C13">
-        <f>0.176*C2 + 0.0049*C3*C4+0.0255*C5*C6+0.023*C7+0.085*C8+0.045*C9+0.008*C10+0.4*C11+0.5</f>
-        <v>185.614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <f>B4*10</f>
         <v>20</v>
-      </c>
-      <c r="C14">
-        <f>C4*10</f>
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/explore/costs_calc.xlsx
+++ b/explore/costs_calc.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rime/uw-datascience/ds785/thesis_latex/explore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF61B0D5-79A1-E24B-960C-32B658FF29FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94ADD4B-9248-F541-BF60-852B8D4838FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="460" windowWidth="32300" windowHeight="19560" xr2:uid="{5F43299C-6689-8349-9F7B-1CAF92A64BB7}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="41840" windowHeight="19560" activeTab="1" xr2:uid="{5F43299C-6689-8349-9F7B-1CAF92A64BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Explorer" sheetId="1" r:id="rId1"/>
+    <sheet name="Pricing Cost Basis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>t</t>
   </si>
@@ -76,14 +77,145 @@
   </si>
   <si>
     <t>Concurrent Scan Limit:</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>WEBSITES</t>
+  </si>
+  <si>
+    <t>PAGES</t>
+  </si>
+  <si>
+    <t>PROF.SERVICES</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>WEB HOOKS</t>
+  </si>
+  <si>
+    <t>NOTIFICATIONS</t>
+  </si>
+  <si>
+    <t>RECOMMENDATION</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>SCANS</t>
+  </si>
+  <si>
+    <t>Professional Services per Hour</t>
+  </si>
+  <si>
+    <t>EST Operations Cost / mo</t>
+  </si>
+  <si>
+    <t>Plan Cost / mo</t>
+  </si>
+  <si>
+    <t>Professional Services Cost per Hour</t>
+  </si>
+  <si>
+    <t>AVG Report Size/page (GB)</t>
+  </si>
+  <si>
+    <t>AVG WebHook Payload Size (GB)</t>
+  </si>
+  <si>
+    <t>S3 Cost/GB</t>
+  </si>
+  <si>
+    <t>ELB Cost/GB</t>
+  </si>
+  <si>
+    <t>ELB Cost/Req/Mil</t>
+  </si>
+  <si>
+    <t>Est API Req/mo/user</t>
+  </si>
+  <si>
+    <t>Network Cost/GB</t>
+  </si>
+  <si>
+    <t>Cloudfront Cost/GB</t>
+  </si>
+  <si>
+    <t>Cloudfront Traffic/User (GB)</t>
+  </si>
+  <si>
+    <t>Time ( 100 websites / n_plan )</t>
+  </si>
+  <si>
+    <t>Subscriptions:</t>
+  </si>
+  <si>
+    <t>Free:</t>
+  </si>
+  <si>
+    <t>Personal:</t>
+  </si>
+  <si>
+    <t>Professional:</t>
+  </si>
+  <si>
+    <t>Enterprise:</t>
+  </si>
+  <si>
+    <t>Price:</t>
+  </si>
+  <si>
+    <t>Profit/mo:</t>
+  </si>
+  <si>
+    <t>Margin:</t>
+  </si>
+  <si>
+    <t>Break Even:</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>W/O Prof Services</t>
+  </si>
+  <si>
+    <t>Max Plans Supported:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,8 +243,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4CF063-D35C-5B46-BFAD-CEE1E92E4454}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -550,4 +704,447 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1EA282-AFBB-4F4A-8D47-8A0346E952E6}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.5" style="2" customWidth="1"/>
+    <col min="2" max="4" width="21.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="2" customWidth="1"/>
+    <col min="11" max="12" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(((B16*(B2*G2))+(((B2*B14)/1000000)*B15)) + (B13*(C2*D2*E2*B12))+((B17 * (C2*D2*E2*B12)) + B13*(C2*D2*E2*B11) + (B18*B2*B19))) + (B22*F2)</f>
+        <v>0.10300179100000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <f>B9*(((B16*(B3*G3))+(((B3*B14)/1000000)*B15)) + (B13*(C3*D3*E3*B12))+((B17 * (C3*D3*E3*B12)) + B13*(C3*D3*E3*B11) + (B18*B3*B19))) + (B22*F3)</f>
+        <v>2.0601791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <f>B9*(((B16*(B4*G4))+(((B4*B14)/1000000)*B15)) + (B13*(C4*D4*E4*B12))+((B17 * (C4*D4*E4*B12)) + B13*(C4*D4*E4*B11) + (B18*B4*B19))) + (B22*F4)</f>
+        <v>10.308955000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <f>B9*(((B16*(B5*G5))+(((B5*B14)/1000000)*B15)) + (B13*(C5*D5*E5*B12))+((B17 * (C5*D5*E5*B12)) + B13*(C5*D5*E5*B11) + (B18*B5*B19))) + (B22*F5)</f>
+        <v>353.35820000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <f>B9*(((B16*(B5*G5))+(((B5*B14)/1000000)*B15)) + (B13*(C5*D5*E5*B12))+((B17 * (C5*D5*E5*B12)) + B13*(C5*D5*E5*B11) + (B18*B5*B19)))</f>
+        <v>55.858199999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>157.13999999999999</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <f>D9-K2</f>
+        <v>-0.10300179100000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2">
+        <f>100/C2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2">
+        <f>D10-K3</f>
+        <v>36.939820900000001</v>
+      </c>
+      <c r="F10" s="2">
+        <f>E10/D10</f>
+        <v>0.94717489487179485</v>
+      </c>
+      <c r="G10" s="2">
+        <f>ROUNDUP(B8/E10, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <f>100/C3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="E11" s="2">
+        <f>D11-K4</f>
+        <v>89.681044999999997</v>
+      </c>
+      <c r="F11" s="2">
+        <f>E11/D11</f>
+        <v>0.89690014001400142</v>
+      </c>
+      <c r="G11" s="2">
+        <f>ROUNDUP(B8/E11, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <f>100/C4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1299</v>
+      </c>
+      <c r="E12" s="8">
+        <f>D12-K5</f>
+        <v>945.64179999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <f>E12/D12</f>
+        <v>0.72797675134719009</v>
+      </c>
+      <c r="G12" s="2">
+        <f>ROUNDUP(B8/E12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <f>100/C5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/explore/costs_calc.xlsx
+++ b/explore/costs_calc.xlsx
@@ -8,14 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rime/uw-datascience/ds785/thesis_latex/explore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94ADD4B-9248-F541-BF60-852B8D4838FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EE27A5-B0A0-1A45-8D2C-5959CE02EDB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="41840" windowHeight="19560" activeTab="1" xr2:uid="{5F43299C-6689-8349-9F7B-1CAF92A64BB7}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="40360" windowHeight="19560" activeTab="1" xr2:uid="{5F43299C-6689-8349-9F7B-1CAF92A64BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Explorer" sheetId="1" r:id="rId1"/>
     <sheet name="Pricing Cost Basis" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Pricing Cost Basis'!$C$10:$C$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Pricing Cost Basis'!$G$10:$G$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Pricing Cost Basis'!$C$10:$C$12</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Pricing Cost Basis'!$G$10:$G$12</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Pricing Cost Basis'!$H$10:$H$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Pricing Cost Basis'!$C$10:$C$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Pricing Cost Basis'!$G$10:$G$12</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Pricing Cost Basis'!$H$10:$H$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Pricing Cost Basis'!$C$10:$C$12</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Pricing Cost Basis'!$G$10:$G$12</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Pricing Cost Basis'!$H$10:$H$12</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Pricing Cost Basis'!$C$10:$C$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Pricing Cost Basis'!$H$10:$H$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Pricing Cost Basis'!$G$10:$G$12</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Pricing Cost Basis'!$H$10:$H$12</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Pricing Cost Basis'!$C$10:$C$12</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Pricing Cost Basis'!$G$10:$G$12</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Pricing Cost Basis'!$H$10:$H$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Pricing Cost Basis'!$C$10:$C$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Pricing Cost Basis'!$G$10:$G$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Pricing Cost Basis'!$H$10:$H$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Pricing Cost Basis'!$C$10:$C$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Pricing Cost Basis'!$G$10:$G$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Pricing Cost Basis'!$H$10:$H$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Pricing Cost Basis'!$G$10:$G$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>t</t>
   </si>
@@ -163,9 +190,6 @@
     <t>Cloudfront Traffic/User (GB)</t>
   </si>
   <si>
-    <t>Time ( 100 websites / n_plan )</t>
-  </si>
-  <si>
     <t>Subscriptions:</t>
   </si>
   <si>
@@ -200,6 +224,12 @@
   </si>
   <si>
     <t>Max Plans Supported:</t>
+  </si>
+  <si>
+    <t>Enterprise w/o Prof:</t>
+  </si>
+  <si>
+    <t>Prof web*scans baseline</t>
   </si>
 </sst>
 </file>
@@ -282,6 +312,3130 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Profit Margin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pricing Cost Basis'!$C$10:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Personal:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Professional:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Enterprise:</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Enterprise w/o Prof:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pricing Cost Basis'!$F$10:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.94715652564102559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89577868686868689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72797675134719009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95699907621247116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F368-1E4D-9B96-43C996FCC9A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="859889903"/>
+        <c:axId val="860365839"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="859889903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860365839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="860365839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="859889903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cost Basis w/o Prof. Services</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pricing Cost Basis'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Free</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Professional</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Enterprise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Pricing Cost Basis'!$K$2:$K$4,'Pricing Cost Basis'!$L$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10300179100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0608955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.317910000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.858199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1DE-1540-B298-C5C467E16DE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="863875647"/>
+        <c:axId val="863940543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="863875647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863940543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="863940543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863875647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Arch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>. Support w Break Even</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pricing Cost Basis'!$C$10:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Personal:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Professional:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Enterprise:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pricing Cost Basis'!$H$10:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-788B-D44C-92CF-4F00591D3EA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="865113103"/>
+        <c:axId val="856179775"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pricing Cost Basis'!$C$10:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Personal:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Professional:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Enterprise:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pricing Cost Basis'!$G$10:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-788B-D44C-92CF-4F00591D3EA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="865113103"/>
+        <c:axId val="856179775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="865113103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="856179775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="856179775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865113103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1640416</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1629833</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29AE020-1C31-514A-AE72-D82B29B69980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1629832</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1619248</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3020419-356A-1D47-AAEF-BE3649535E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1640416</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>189442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1619249</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>201083</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE8DF9E-69CD-4346-BF67-E9B77BA4ECBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,7 +3865,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,7 +3914,7 @@
         <v>31</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -807,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -832,7 +3986,7 @@
       </c>
       <c r="K3" s="1">
         <f>B9*(((B16*(B3*G3))+(((B3*B14)/1000000)*B15)) + (B13*(C3*D3*E3*B12))+((B17 * (C3*D3*E3*B12)) + B13*(C3*D3*E3*B11) + (B18*B3*B19))) + (B22*F3)</f>
-        <v>2.0601791</v>
+        <v>2.0608955</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -843,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -868,7 +4022,7 @@
       </c>
       <c r="K4" s="1">
         <f>B9*(((B16*(B4*G4))+(((B4*B14)/1000000)*B15)) + (B13*(C4*D4*E4*B12))+((B17 * (C4*D4*E4*B12)) + B13*(C4*D4*E4*B11) + (B18*B4*B19))) + (B22*F4)</f>
-        <v>10.308955000000001</v>
+        <v>10.317910000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -936,33 +4090,33 @@
         <v>157.13999999999999</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2">
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -975,11 +4129,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="2">
-        <f>100/C2</f>
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -987,18 +4140,18 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>39</v>
       </c>
       <c r="E10" s="2">
         <f>D10-K3</f>
-        <v>36.939820900000001</v>
+        <v>36.939104499999999</v>
       </c>
       <c r="F10" s="2">
         <f>E10/D10</f>
-        <v>0.94717489487179485</v>
+        <v>0.94715652564102559</v>
       </c>
       <c r="G10" s="2">
         <f>ROUNDUP(B8/E10, 0)</f>
@@ -1006,7 +4159,7 @@
       </c>
       <c r="H10" s="2">
         <f>100/C3</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1017,18 +4170,18 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1">
-        <v>99.99</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2">
         <f>D11-K4</f>
-        <v>89.681044999999997</v>
+        <v>88.682090000000002</v>
       </c>
       <c r="F11" s="2">
         <f>E11/D11</f>
-        <v>0.89690014001400142</v>
+        <v>0.89577868686868689</v>
       </c>
       <c r="G11" s="2">
         <f>ROUNDUP(B8/E11, 0)</f>
@@ -1036,7 +4189,7 @@
       </c>
       <c r="H11" s="2">
         <f>100/C4</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1047,7 +4200,7 @@
         <v>2.5999999999999998E-5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
         <v>1299</v>
@@ -1075,6 +4228,17 @@
       </c>
       <c r="B13" s="2">
         <v>2.3E-2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8">
+        <f>D12-L5</f>
+        <v>1243.1418000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <f>E13/D12</f>
+        <v>0.95699907621247116</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1129,7 +4293,7 @@
       <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2">
@@ -1137,7 +4301,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2">
@@ -1146,5 +4310,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/explore/costs_calc.xlsx
+++ b/explore/costs_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rime/uw-datascience/ds785/thesis_latex/explore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EE27A5-B0A0-1A45-8D2C-5959CE02EDB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874C3791-3758-474A-B418-EB6C718E2F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="40360" windowHeight="19560" activeTab="1" xr2:uid="{5F43299C-6689-8349-9F7B-1CAF92A64BB7}"/>
+    <workbookView xWindow="1840" yWindow="1000" windowWidth="37460" windowHeight="19560" activeTab="1" xr2:uid="{5F43299C-6689-8349-9F7B-1CAF92A64BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Explorer" sheetId="1" r:id="rId1"/>
@@ -3865,7 +3865,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/explore/costs_calc.xlsx
+++ b/explore/costs_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rime/uw-datascience/ds785/thesis_latex/explore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874C3791-3758-474A-B418-EB6C718E2F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE280862-E7FE-1B49-A509-DCF9B9A2D357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1000" windowWidth="37460" windowHeight="19560" activeTab="1" xr2:uid="{5F43299C-6689-8349-9F7B-1CAF92A64BB7}"/>
+    <workbookView xWindow="1960" yWindow="2060" windowWidth="39000" windowHeight="19560" activeTab="1" xr2:uid="{5F43299C-6689-8349-9F7B-1CAF92A64BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Explorer" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
     <t>Enterprise w/o Prof:</t>
   </si>
   <si>
-    <t>Prof web*scans baseline</t>
+    <t>Prof web*scans baseline ( C )</t>
   </si>
 </sst>
 </file>
@@ -3865,7 +3865,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
